--- a/data/Test1.xlsx
+++ b/data/Test1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlutterProjects\FlutterApp_Prediccion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\FlutterApp_Prediccion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DFAAF-BA59-47AB-8AF1-E2B7F3B40F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842673D-700B-4656-8B71-DCFE024271D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>seccion</t>
   </si>
   <si>
-    <t>Tema1</t>
-  </si>
-  <si>
     <t>Tema2</t>
   </si>
   <si>
@@ -133,15 +130,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>nombr</t>
-  </si>
-  <si>
-    <t>ap</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
     <t>Neira</t>
   </si>
   <si>
@@ -151,10 +139,22 @@
     <t>-</t>
   </si>
   <si>
-    <t>Nelly</t>
-  </si>
-  <si>
-    <t>Riveros</t>
+    <t>Cesar</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Tema1ASDFASDF</t>
   </si>
 </sst>
 </file>
@@ -642,48 +642,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -699,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -998,17 +998,17 @@
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1017,394 +1017,394 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
-      </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AF4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AG4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
